--- a/doc/src/20170320_registers.xlsx
+++ b/doc/src/20170320_registers.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$AH$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$AH$153</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>EICE</t>
   </si>
@@ -702,6 +702,47 @@
   </si>
   <si>
     <t>https://github.com/zhelnio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to enable 'Explicit Vector Offset' option uncomment  'EIC_USE_EXPLICIT_VECTOR_OFFSET' in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mfp_eic_core.vh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and 
+set 'assign eic_offset = 1'b1;' in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m14k_cpz_eicoffset_stub.v</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -767,7 +808,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -836,6 +877,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -844,7 +894,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -863,12 +913,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -905,9 +949,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -916,6 +957,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1214,10 +1272,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AG152"/>
+  <dimension ref="B1:AG153"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:AG13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1228,962 +1286,964 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="9.75" customHeight="1">
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
     </row>
     <row r="2" spans="2:33" ht="15.75">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-    </row>
-    <row r="3" spans="2:33" ht="15.75">
-      <c r="B3" s="11"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+    </row>
+    <row r="3" spans="2:33" ht="9" customHeight="1">
+      <c r="B3" s="9"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
     </row>
     <row r="4" spans="2:33" ht="15.75">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="26" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-    </row>
-    <row r="5" spans="2:33" ht="15.75">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+    </row>
+    <row r="5" spans="2:33" ht="9" customHeight="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
     </row>
     <row r="6" spans="2:33" ht="15.75">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-    </row>
-    <row r="7" spans="2:33" ht="15.75">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+    </row>
+    <row r="7" spans="2:33" ht="9.75" customHeight="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
     </row>
     <row r="8" spans="2:33" ht="15.75">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
     </row>
     <row r="9" spans="2:33" ht="15.75">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
     </row>
     <row r="10" spans="2:33" ht="15.75">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
     </row>
     <row r="11" spans="2:33" ht="33.75" customHeight="1">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
     </row>
     <row r="12" spans="2:33" ht="15.75">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="2:33" ht="47.25" customHeight="1">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
     </row>
     <row r="14" spans="2:33" ht="15.75">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
     </row>
     <row r="15" spans="2:33" ht="15.75">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
     </row>
     <row r="16" spans="2:33" ht="15.75">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
     </row>
     <row r="17" spans="2:33" ht="15.75">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-    </row>
-    <row r="18" spans="2:33" ht="15.75">
-      <c r="B18" s="14"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-    </row>
-    <row r="19" spans="2:33" ht="15.75">
-      <c r="B19" s="11" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+    </row>
+    <row r="18" spans="2:33" ht="30" customHeight="1">
+      <c r="B18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+    </row>
+    <row r="19" spans="2:33" ht="10.5" customHeight="1">
+      <c r="B19" s="12"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+    </row>
+    <row r="20" spans="2:33" ht="15.75">
+      <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-    </row>
-    <row r="20" spans="2:33" ht="15.75">
-      <c r="B20" s="14"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-    </row>
-    <row r="21" spans="2:33" ht="15.75">
-      <c r="B21" s="14"/>
-      <c r="C21" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+    </row>
+    <row r="21" spans="2:33" ht="8.25" customHeight="1">
+      <c r="B21" s="12"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+    </row>
+    <row r="22" spans="2:33" ht="15.75">
+      <c r="B22" s="12"/>
+      <c r="C22" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-    </row>
-    <row r="22" spans="2:33" ht="15.75">
-      <c r="B22" s="14"/>
-      <c r="C22" t="s">
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+    </row>
+    <row r="23" spans="2:33" ht="15.75">
+      <c r="B23" s="12"/>
+      <c r="C23" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" t="s">
         <v>105</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-    </row>
-    <row r="23" spans="2:33" ht="15.75">
-      <c r="B23" s="14"/>
-      <c r="C23" t="s">
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+    </row>
+    <row r="24" spans="2:33" ht="15.75">
+      <c r="B24" s="12"/>
+      <c r="C24" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-    </row>
-    <row r="24" spans="2:33" ht="15.75">
-      <c r="B24" s="14"/>
-      <c r="C24" t="s">
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+    </row>
+    <row r="25" spans="2:33" ht="15.75">
+      <c r="B25" s="12"/>
+      <c r="C25" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-    </row>
-    <row r="25" spans="2:33" ht="15.75">
-      <c r="B25" s="14"/>
-      <c r="C25" t="s">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+    </row>
+    <row r="26" spans="2:33" ht="15.75">
+      <c r="B26" s="12"/>
+      <c r="C26" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-    </row>
-    <row r="26" spans="2:33" ht="15.75">
-      <c r="B26" s="14"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-    </row>
-    <row r="27" spans="2:33" ht="17.25" customHeight="1">
-      <c r="B27" s="11" t="s">
-        <v>82</v>
-      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+    </row>
+    <row r="27" spans="2:33" ht="15.75">
+      <c r="B27" s="12"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -2216,3221 +2276,3325 @@
       <c r="AF27" s="22"/>
       <c r="AG27" s="22"/>
     </row>
-    <row r="29" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B29" s="10" t="s">
+    <row r="28" spans="2:33" ht="17.25" customHeight="1">
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+    </row>
+    <row r="30" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-    </row>
-    <row r="30" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B30" s="10" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+    </row>
+    <row r="31" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8">
         <v>1</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-    </row>
-    <row r="31" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B31" s="10" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+    </row>
+    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-    </row>
-    <row r="32" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B32" s="10" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+    </row>
+    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-    </row>
-    <row r="33" spans="2:33">
-      <c r="B33" s="1"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:33">
+      <c r="B35" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>30</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>29</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>28</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="2">
         <v>27</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="2">
         <v>26</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H35" s="2">
         <v>25</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I35" s="2">
         <v>24</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J35" s="2">
         <v>23</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K35" s="2">
         <v>22</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L35" s="2">
         <v>21</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M35" s="2">
         <v>20</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N35" s="2">
         <v>19</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O35" s="2">
         <v>18</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P35" s="2">
         <v>17</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q35" s="2">
         <v>16</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R35" s="2">
         <v>15</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S35" s="2">
         <v>14</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T35" s="2">
         <v>13</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U35" s="2">
         <v>12</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V35" s="2">
         <v>11</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W35" s="2">
         <v>10</v>
       </c>
-      <c r="X34" s="2">
+      <c r="X35" s="2">
         <v>9</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Y35" s="2">
         <v>8</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z35" s="2">
         <v>7</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA35" s="2">
         <v>6</v>
       </c>
-      <c r="AB34" s="2">
+      <c r="AB35" s="2">
         <v>5</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AC35" s="2">
         <v>4</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD35" s="2">
         <v>3</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AE35" s="2">
         <v>2</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AF35" s="2">
         <v>1</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AG35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7" t="s">
+    <row r="36" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4" t="s">
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:33">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B37" s="10" t="s">
+    <row r="37" spans="2:33">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B38" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B38" s="10"/>
-      <c r="D38" s="13">
+    <row r="39" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B39" s="8"/>
+      <c r="D39" s="11">
         <v>0</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E39" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F39" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B39" s="10"/>
-      <c r="D39" s="13">
+    <row r="40" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B40" s="8"/>
+      <c r="D40" s="11">
         <v>1</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E40" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="16"/>
-    </row>
-    <row r="41" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B42" s="10" t="s">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+    </row>
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E43" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B43" s="10" t="s">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B44" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E44" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B44" s="10" t="s">
+    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E45" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B45" s="10" t="s">
+    <row r="46" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B46" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:33">
-      <c r="B46" s="1"/>
-    </row>
     <row r="47" spans="2:33">
-      <c r="B47" s="2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:33">
+      <c r="B48" s="2">
         <v>31</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>30</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D48" s="2">
         <v>29</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E48" s="2">
         <v>28</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F48" s="2">
         <v>27</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G48" s="2">
         <v>26</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H48" s="2">
         <v>25</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I48" s="2">
         <v>24</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J48" s="2">
         <v>23</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K48" s="2">
         <v>22</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L48" s="2">
         <v>21</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M48" s="2">
         <v>20</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N48" s="2">
         <v>19</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O48" s="2">
         <v>18</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P48" s="2">
         <v>17</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q48" s="2">
         <v>16</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R48" s="2">
         <v>15</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S48" s="2">
         <v>14</v>
       </c>
-      <c r="T47" s="2">
+      <c r="T48" s="2">
         <v>13</v>
       </c>
-      <c r="U47" s="2">
+      <c r="U48" s="2">
         <v>12</v>
       </c>
-      <c r="V47" s="2">
+      <c r="V48" s="2">
         <v>11</v>
       </c>
-      <c r="W47" s="2">
+      <c r="W48" s="2">
         <v>10</v>
       </c>
-      <c r="X47" s="2">
+      <c r="X48" s="2">
         <v>9</v>
       </c>
-      <c r="Y47" s="2">
+      <c r="Y48" s="2">
         <v>8</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="Z48" s="2">
         <v>7</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AA48" s="2">
         <v>6</v>
       </c>
-      <c r="AB47" s="2">
+      <c r="AB48" s="2">
         <v>5</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AC48" s="2">
         <v>4</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD48" s="2">
         <v>3</v>
       </c>
-      <c r="AE47" s="2">
+      <c r="AE48" s="2">
         <v>2</v>
       </c>
-      <c r="AF47" s="2">
+      <c r="AF48" s="2">
         <v>1</v>
       </c>
-      <c r="AG47" s="2">
+      <c r="AG48" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B48" s="3" t="s">
+    <row r="49" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="4" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:33">
-      <c r="B49" s="1"/>
-    </row>
     <row r="50" spans="2:33">
-      <c r="B50" s="2">
-        <f t="shared" ref="B50:AF50" si="0">B47+32</f>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:33">
+      <c r="B51" s="2">
+        <f t="shared" ref="B51:AF51" si="0">B48+32</f>
         <v>63</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D51" s="2">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E51" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F51" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G51" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H51" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I51" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J51" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K51" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L51" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M51" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N51" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P51" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="Q51" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="T50" s="2">
+      <c r="T51" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="U50" s="2">
+      <c r="U51" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="V50" s="2">
+      <c r="V51" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="W50" s="2">
+      <c r="W51" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="X50" s="2">
+      <c r="X51" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="Y50" s="2">
+      <c r="Y51" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="Z50" s="2">
+      <c r="Z51" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AA51" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AB50" s="2">
+      <c r="AB51" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AC50" s="2">
+      <c r="AC51" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD51" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AE51" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AF50" s="2">
+      <c r="AF51" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AG50" s="2">
-        <f>AG47+32</f>
+      <c r="AG51" s="2">
+        <f>AG48+32</f>
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B51" s="3" t="s">
+    <row r="52" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
-      <c r="AG51" s="4" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:33">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B53" s="10" t="s">
+    <row r="53" spans="2:33">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B54" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D54" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B54" s="10"/>
-      <c r="D54" s="13">
+    <row r="55" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B55" s="8"/>
+      <c r="D55" s="11">
         <v>0</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E55" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F55" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B55" s="10"/>
-      <c r="D55" s="13">
+    <row r="56" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B56" s="8"/>
+      <c r="D56" s="11">
         <v>1</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E56" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F56" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="16"/>
-      <c r="AA56" s="16"/>
-      <c r="AB56" s="16"/>
-      <c r="AC56" s="16"/>
-      <c r="AD56" s="16"/>
-      <c r="AE56" s="16"/>
-      <c r="AF56" s="16"/>
-      <c r="AG56" s="16"/>
-    </row>
-    <row r="57" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B57" s="10"/>
-    </row>
-    <row r="58" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B58" s="10" t="s">
+    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+    </row>
+    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B59" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E59" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B59" s="10" t="s">
+    <row r="60" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B60" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E60" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B60" s="10" t="s">
+    <row r="61" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B61" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E61" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B61" s="10" t="s">
+    <row r="62" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B62" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E62" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:33">
-      <c r="B62" s="1"/>
-    </row>
     <row r="63" spans="2:33">
-      <c r="B63" s="2">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:33">
+      <c r="B64" s="2">
         <v>31</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C64" s="2">
         <v>30</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D64" s="2">
         <v>29</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E64" s="2">
         <v>28</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F64" s="2">
         <v>27</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G64" s="2">
         <v>26</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H64" s="2">
         <v>25</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I64" s="2">
         <v>24</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J64" s="2">
         <v>23</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K64" s="2">
         <v>22</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L64" s="2">
         <v>21</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M64" s="2">
         <v>20</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N64" s="2">
         <v>19</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O64" s="2">
         <v>18</v>
       </c>
-      <c r="P63" s="2">
+      <c r="P64" s="2">
         <v>17</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="Q64" s="2">
         <v>16</v>
       </c>
-      <c r="R63" s="2">
+      <c r="R64" s="2">
         <v>15</v>
       </c>
-      <c r="S63" s="2">
+      <c r="S64" s="2">
         <v>14</v>
       </c>
-      <c r="T63" s="2">
+      <c r="T64" s="2">
         <v>13</v>
       </c>
-      <c r="U63" s="2">
+      <c r="U64" s="2">
         <v>12</v>
       </c>
-      <c r="V63" s="2">
+      <c r="V64" s="2">
         <v>11</v>
       </c>
-      <c r="W63" s="2">
+      <c r="W64" s="2">
         <v>10</v>
       </c>
-      <c r="X63" s="2">
+      <c r="X64" s="2">
         <v>9</v>
       </c>
-      <c r="Y63" s="2">
+      <c r="Y64" s="2">
         <v>8</v>
       </c>
-      <c r="Z63" s="2">
+      <c r="Z64" s="2">
         <v>7</v>
       </c>
-      <c r="AA63" s="2">
+      <c r="AA64" s="2">
         <v>6</v>
       </c>
-      <c r="AB63" s="2">
+      <c r="AB64" s="2">
         <v>5</v>
       </c>
-      <c r="AC63" s="2">
+      <c r="AC64" s="2">
         <v>4</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD64" s="2">
         <v>3</v>
       </c>
-      <c r="AE63" s="2">
+      <c r="AE64" s="2">
         <v>2</v>
       </c>
-      <c r="AF63" s="2">
+      <c r="AF64" s="2">
         <v>1</v>
       </c>
-      <c r="AG63" s="2">
+      <c r="AG64" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B64" s="3" t="s">
+    <row r="65" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="4" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="2:33">
-      <c r="B65" s="1"/>
-    </row>
     <row r="66" spans="2:33">
-      <c r="B66" s="2">
-        <f t="shared" ref="B66:AF66" si="1">B63+32</f>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:33">
+      <c r="B67" s="2">
+        <f t="shared" ref="B67:AF67" si="1">B64+32</f>
         <v>63</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="2">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D67" s="2">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E67" s="2">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F67" s="2">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G67" s="2">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H67" s="2">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I67" s="2">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J67" s="2">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K67" s="2">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L67" s="2">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M67" s="2">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N67" s="2">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="O66" s="2">
+      <c r="O67" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="P66" s="2">
+      <c r="P67" s="2">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="Q67" s="2">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="R66" s="2">
+      <c r="R67" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="S66" s="2">
+      <c r="S67" s="2">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="T66" s="2">
+      <c r="T67" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="U66" s="2">
+      <c r="U67" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="V66" s="2">
+      <c r="V67" s="2">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="W66" s="2">
+      <c r="W67" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="X66" s="2">
+      <c r="X67" s="2">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="Y66" s="2">
+      <c r="Y67" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="Z66" s="2">
+      <c r="Z67" s="2">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="AA66" s="2">
+      <c r="AA67" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AB66" s="2">
+      <c r="AB67" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AC66" s="2">
+      <c r="AC67" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AD66" s="2">
+      <c r="AD67" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AE66" s="2">
+      <c r="AE67" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="AF66" s="2">
+      <c r="AF67" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="AG66" s="2">
-        <f>AG63+32</f>
+      <c r="AG67" s="2">
+        <f>AG64+32</f>
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B67" s="3" t="s">
+    <row r="68" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B68" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
-      <c r="AG67" s="4" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="2:33">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B69" s="10" t="s">
+    <row r="69" spans="2:33">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B70" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D70" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B70" s="10"/>
-      <c r="D70" s="13">
+    <row r="71" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B71" s="8"/>
+      <c r="D71" s="11">
         <v>0</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E71" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F71" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B71" s="10"/>
-      <c r="D71" s="13">
+    <row r="72" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B72" s="8"/>
+      <c r="D72" s="11">
         <v>1</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E72" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F72" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B72" s="15"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="16"/>
-      <c r="AE72" s="16"/>
-      <c r="AF72" s="16"/>
-      <c r="AG72" s="16"/>
-    </row>
-    <row r="73" spans="2:33" s="12" customFormat="1" ht="15.75"/>
-    <row r="74" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B74" s="10" t="s">
+    <row r="73" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+      <c r="AC73" s="28"/>
+      <c r="AD73" s="28"/>
+      <c r="AE73" s="28"/>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="28"/>
+    </row>
+    <row r="74" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="30"/>
+      <c r="U74" s="30"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="30"/>
+      <c r="AD74" s="30"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="30"/>
+      <c r="AG74" s="30"/>
+    </row>
+    <row r="75" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B75" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E75" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B75" s="10" t="s">
+    <row r="76" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E76" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B76" s="10" t="s">
+    <row r="77" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B77" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E77" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B77" s="10" t="s">
+    <row r="78" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B78" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E78" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="2:33">
-      <c r="B78" s="1"/>
-    </row>
     <row r="79" spans="2:33">
-      <c r="B79" s="2">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:33">
+      <c r="B80" s="2">
         <v>31</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="2">
         <v>30</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D80" s="2">
         <v>29</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E80" s="2">
         <v>28</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F80" s="2">
         <v>27</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G80" s="2">
         <v>26</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H80" s="2">
         <v>25</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I80" s="2">
         <v>24</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J80" s="2">
         <v>23</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K80" s="2">
         <v>22</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L80" s="2">
         <v>21</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M80" s="2">
         <v>20</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N80" s="2">
         <v>19</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O80" s="2">
         <v>18</v>
       </c>
-      <c r="P79" s="2">
+      <c r="P80" s="2">
         <v>17</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="Q80" s="2">
         <v>16</v>
       </c>
-      <c r="R79" s="2">
+      <c r="R80" s="2">
         <v>15</v>
       </c>
-      <c r="S79" s="2">
+      <c r="S80" s="2">
         <v>14</v>
       </c>
-      <c r="T79" s="2">
+      <c r="T80" s="2">
         <v>13</v>
       </c>
-      <c r="U79" s="2">
+      <c r="U80" s="2">
         <v>12</v>
       </c>
-      <c r="V79" s="2">
+      <c r="V80" s="2">
         <v>11</v>
       </c>
-      <c r="W79" s="2">
+      <c r="W80" s="2">
         <v>10</v>
       </c>
-      <c r="X79" s="2">
+      <c r="X80" s="2">
         <v>9</v>
       </c>
-      <c r="Y79" s="2">
+      <c r="Y80" s="2">
         <v>8</v>
       </c>
-      <c r="Z79" s="2">
+      <c r="Z80" s="2">
         <v>7</v>
       </c>
-      <c r="AA79" s="2">
+      <c r="AA80" s="2">
         <v>6</v>
       </c>
-      <c r="AB79" s="2">
+      <c r="AB80" s="2">
         <v>5</v>
       </c>
-      <c r="AC79" s="2">
+      <c r="AC80" s="2">
         <v>4</v>
       </c>
-      <c r="AD79" s="2">
+      <c r="AD80" s="2">
         <v>3</v>
       </c>
-      <c r="AE79" s="2">
+      <c r="AE80" s="2">
         <v>2</v>
       </c>
-      <c r="AF79" s="2">
+      <c r="AF80" s="2">
         <v>1</v>
       </c>
-      <c r="AG79" s="2">
+      <c r="AG80" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B80" s="3" t="s">
+    <row r="81" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B81" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-      <c r="AF80" s="3"/>
-      <c r="AG80" s="4" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="2:33">
-      <c r="B81" s="1"/>
-    </row>
     <row r="82" spans="2:33">
-      <c r="B82" s="2">
-        <f t="shared" ref="B82:AF82" si="2">B79+32</f>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:33">
+      <c r="B83" s="2">
+        <f t="shared" ref="B83:AF83" si="2">B80+32</f>
         <v>63</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D83" s="2">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E83" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F83" s="2">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G83" s="2">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H83" s="2">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I83" s="2">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J83" s="2">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K83" s="2">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L83" s="2">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M83" s="2">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N83" s="2">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="O82" s="2">
+      <c r="O83" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="P82" s="2">
+      <c r="P83" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="Q83" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="R82" s="2">
+      <c r="R83" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="S82" s="2">
+      <c r="S83" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="T82" s="2">
+      <c r="T83" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="U82" s="2">
+      <c r="U83" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="V82" s="2">
+      <c r="V83" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="W82" s="2">
+      <c r="W83" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="X82" s="2">
+      <c r="X83" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="Y82" s="2">
+      <c r="Y83" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="Z82" s="2">
+      <c r="Z83" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="AA82" s="2">
+      <c r="AA83" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="AB82" s="2">
+      <c r="AB83" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="AC82" s="2">
+      <c r="AC83" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="AD82" s="2">
+      <c r="AD83" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="AE82" s="2">
+      <c r="AE83" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="AF82" s="2">
+      <c r="AF83" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="AG82" s="2">
-        <f>AG79+32</f>
+      <c r="AG83" s="2">
+        <f>AG80+32</f>
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B83" s="3" t="s">
+    <row r="84" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-      <c r="AF83" s="3"/>
-      <c r="AG83" s="4" t="s">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="2:33">
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B85" s="10" t="s">
+    <row r="85" spans="2:33">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B86" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D86" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B86" s="10"/>
-      <c r="D86" s="13">
+    <row r="87" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B87" s="8"/>
+      <c r="D87" s="11">
         <v>0</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E87" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="F87" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B87" s="10"/>
-      <c r="D87" s="13">
+    <row r="88" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B88" s="8"/>
+      <c r="D88" s="11">
         <v>1</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E88" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="F88" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="16"/>
-      <c r="X88" s="16"/>
-      <c r="Y88" s="16"/>
-      <c r="Z88" s="16"/>
-      <c r="AA88" s="16"/>
-      <c r="AB88" s="16"/>
-      <c r="AC88" s="16"/>
-      <c r="AD88" s="16"/>
-      <c r="AE88" s="16"/>
-      <c r="AF88" s="16"/>
-      <c r="AG88" s="16"/>
-    </row>
-    <row r="89" spans="2:33" s="12" customFormat="1" ht="15.75"/>
-    <row r="90" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B90" s="10" t="s">
+    <row r="89" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="14"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="14"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="14"/>
+      <c r="Z89" s="14"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="14"/>
+      <c r="AC89" s="14"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="14"/>
+      <c r="AF89" s="14"/>
+      <c r="AG89" s="14"/>
+    </row>
+    <row r="90" spans="2:33" s="10" customFormat="1" ht="15.75"/>
+    <row r="91" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B91" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E91" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B91" s="10" t="s">
+    <row r="92" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B92" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E92" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B92" s="10" t="s">
+    <row r="93" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B93" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E93" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B93" s="10" t="s">
+    <row r="94" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B94" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E94" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="2:33">
-      <c r="B94" s="1"/>
-    </row>
     <row r="95" spans="2:33">
-      <c r="B95" s="2">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:33">
+      <c r="B96" s="2">
         <v>31</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C96" s="2">
         <v>30</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D96" s="2">
         <v>29</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E96" s="2">
         <v>28</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F96" s="2">
         <v>27</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G96" s="2">
         <v>26</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H96" s="2">
         <v>25</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I96" s="2">
         <v>24</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J96" s="2">
         <v>23</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K96" s="2">
         <v>22</v>
       </c>
-      <c r="L95" s="2">
+      <c r="L96" s="2">
         <v>21</v>
       </c>
-      <c r="M95" s="2">
+      <c r="M96" s="2">
         <v>20</v>
       </c>
-      <c r="N95" s="2">
+      <c r="N96" s="2">
         <v>19</v>
       </c>
-      <c r="O95" s="2">
+      <c r="O96" s="2">
         <v>18</v>
       </c>
-      <c r="P95" s="2">
+      <c r="P96" s="2">
         <v>17</v>
       </c>
-      <c r="Q95" s="2">
+      <c r="Q96" s="2">
         <v>16</v>
       </c>
-      <c r="R95" s="2">
+      <c r="R96" s="2">
         <v>15</v>
       </c>
-      <c r="S95" s="2">
+      <c r="S96" s="2">
         <v>14</v>
       </c>
-      <c r="T95" s="2">
+      <c r="T96" s="2">
         <v>13</v>
       </c>
-      <c r="U95" s="2">
+      <c r="U96" s="2">
         <v>12</v>
       </c>
-      <c r="V95" s="2">
+      <c r="V96" s="2">
         <v>11</v>
       </c>
-      <c r="W95" s="2">
+      <c r="W96" s="2">
         <v>10</v>
       </c>
-      <c r="X95" s="2">
+      <c r="X96" s="2">
         <v>9</v>
       </c>
-      <c r="Y95" s="2">
+      <c r="Y96" s="2">
         <v>8</v>
       </c>
-      <c r="Z95" s="2">
+      <c r="Z96" s="2">
         <v>7</v>
       </c>
-      <c r="AA95" s="2">
+      <c r="AA96" s="2">
         <v>6</v>
       </c>
-      <c r="AB95" s="2">
+      <c r="AB96" s="2">
         <v>5</v>
       </c>
-      <c r="AC95" s="2">
+      <c r="AC96" s="2">
         <v>4</v>
       </c>
-      <c r="AD95" s="2">
+      <c r="AD96" s="2">
         <v>3</v>
       </c>
-      <c r="AE95" s="2">
+      <c r="AE96" s="2">
         <v>2</v>
       </c>
-      <c r="AF95" s="2">
+      <c r="AF96" s="2">
         <v>1</v>
       </c>
-      <c r="AG95" s="2">
+      <c r="AG96" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B96" s="3" t="s">
+    <row r="97" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B97" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
-      <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="3"/>
-      <c r="AD96" s="3"/>
-      <c r="AE96" s="3"/>
-      <c r="AF96" s="3"/>
-      <c r="AG96" s="4" t="s">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+      <c r="AD97" s="3"/>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="3"/>
+      <c r="AG97" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="2:33">
-      <c r="B97" s="1"/>
-    </row>
     <row r="98" spans="2:33">
-      <c r="B98" s="2">
-        <f t="shared" ref="B98:AF98" si="3">B95+32</f>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:33">
+      <c r="B99" s="2">
+        <f t="shared" ref="B99:AF99" si="3">B96+32</f>
         <v>63</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C99" s="2">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D99" s="2">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E99" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F99" s="2">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G99" s="2">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H99" s="2">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I99" s="2">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J99" s="2">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K99" s="2">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="L98" s="2">
+      <c r="L99" s="2">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M99" s="2">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="N98" s="2">
+      <c r="N99" s="2">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="O98" s="2">
+      <c r="O99" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="P98" s="2">
+      <c r="P99" s="2">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="Q99" s="2">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="R98" s="2">
+      <c r="R99" s="2">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="S98" s="2">
+      <c r="S99" s="2">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="T98" s="2">
+      <c r="T99" s="2">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="U98" s="2">
+      <c r="U99" s="2">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="V98" s="2">
+      <c r="V99" s="2">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="W98" s="2">
+      <c r="W99" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="X98" s="2">
+      <c r="X99" s="2">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="Y98" s="2">
+      <c r="Y99" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Z98" s="2">
+      <c r="Z99" s="2">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="AA98" s="2">
+      <c r="AA99" s="2">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="AB98" s="2">
+      <c r="AB99" s="2">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="AC98" s="2">
+      <c r="AC99" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="AD98" s="2">
+      <c r="AD99" s="2">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="AE98" s="2">
+      <c r="AE99" s="2">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="AF98" s="2">
+      <c r="AF99" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="AG98" s="2">
-        <f>AG95+32</f>
+      <c r="AG99" s="2">
+        <f>AG96+32</f>
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B99" s="3" t="s">
+    <row r="100" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B100" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
-      <c r="AD99" s="3"/>
-      <c r="AE99" s="3"/>
-      <c r="AF99" s="3"/>
-      <c r="AG99" s="4" t="s">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
+      <c r="AC100" s="3"/>
+      <c r="AD100" s="3"/>
+      <c r="AE100" s="3"/>
+      <c r="AF100" s="3"/>
+      <c r="AG100" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="2:33">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B101" s="10" t="s">
+    <row r="101" spans="2:33">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B102" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D102" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B102" s="10"/>
-      <c r="D102" s="13">
+    <row r="103" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B103" s="8"/>
+      <c r="D103" s="11">
         <v>0</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E103" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F103" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B103" s="10"/>
-      <c r="D103" s="13">
+    <row r="104" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B104" s="8"/>
+      <c r="D104" s="11">
         <v>1</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E104" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F103" s="12" t="s">
+      <c r="F104" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="16"/>
-      <c r="S104" s="16"/>
-      <c r="T104" s="16"/>
-      <c r="U104" s="16"/>
-      <c r="V104" s="16"/>
-      <c r="W104" s="16"/>
-      <c r="X104" s="16"/>
-      <c r="Y104" s="16"/>
-      <c r="Z104" s="16"/>
-      <c r="AA104" s="16"/>
-      <c r="AB104" s="16"/>
-      <c r="AC104" s="16"/>
-      <c r="AD104" s="16"/>
-      <c r="AE104" s="16"/>
-      <c r="AF104" s="16"/>
-      <c r="AG104" s="16"/>
-    </row>
-    <row r="105" spans="2:33" s="12" customFormat="1" ht="15.75"/>
-    <row r="106" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B106" s="10" t="s">
+    <row r="105" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+      <c r="R105" s="14"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="14"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="14"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="14"/>
+      <c r="Y105" s="14"/>
+      <c r="Z105" s="14"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="14"/>
+      <c r="AC105" s="14"/>
+      <c r="AD105" s="14"/>
+      <c r="AE105" s="14"/>
+      <c r="AF105" s="14"/>
+      <c r="AG105" s="14"/>
+    </row>
+    <row r="106" spans="2:33" s="10" customFormat="1" ht="15.75"/>
+    <row r="107" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B107" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E107" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B107" s="10" t="s">
+    <row r="108" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B108" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E108" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B108" s="10" t="s">
+    <row r="109" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B109" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E109" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B109" s="10" t="s">
+    <row r="110" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B110" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E110" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:33">
-      <c r="B110" s="1"/>
-    </row>
     <row r="111" spans="2:33">
-      <c r="B111" s="2">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="2:33">
+      <c r="B112" s="2">
         <v>31</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C112" s="2">
         <v>30</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D112" s="2">
         <v>29</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E112" s="2">
         <v>28</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F112" s="2">
         <v>27</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G112" s="2">
         <v>26</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H112" s="2">
         <v>25</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I112" s="2">
         <v>24</v>
       </c>
-      <c r="J111" s="2">
+      <c r="J112" s="2">
         <v>23</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K112" s="2">
         <v>22</v>
       </c>
-      <c r="L111" s="2">
+      <c r="L112" s="2">
         <v>21</v>
       </c>
-      <c r="M111" s="2">
+      <c r="M112" s="2">
         <v>20</v>
       </c>
-      <c r="N111" s="2">
+      <c r="N112" s="2">
         <v>19</v>
       </c>
-      <c r="O111" s="2">
+      <c r="O112" s="2">
         <v>18</v>
       </c>
-      <c r="P111" s="2">
+      <c r="P112" s="2">
         <v>17</v>
       </c>
-      <c r="Q111" s="2">
+      <c r="Q112" s="2">
         <v>16</v>
       </c>
-      <c r="R111" s="2">
+      <c r="R112" s="2">
         <v>15</v>
       </c>
-      <c r="S111" s="2">
+      <c r="S112" s="2">
         <v>14</v>
       </c>
-      <c r="T111" s="2">
+      <c r="T112" s="2">
         <v>13</v>
       </c>
-      <c r="U111" s="2">
+      <c r="U112" s="2">
         <v>12</v>
       </c>
-      <c r="V111" s="2">
+      <c r="V112" s="2">
         <v>11</v>
       </c>
-      <c r="W111" s="2">
+      <c r="W112" s="2">
         <v>10</v>
       </c>
-      <c r="X111" s="2">
+      <c r="X112" s="2">
         <v>9</v>
       </c>
-      <c r="Y111" s="2">
+      <c r="Y112" s="2">
         <v>8</v>
       </c>
-      <c r="Z111" s="2">
+      <c r="Z112" s="2">
         <v>7</v>
       </c>
-      <c r="AA111" s="2">
+      <c r="AA112" s="2">
         <v>6</v>
       </c>
-      <c r="AB111" s="2">
+      <c r="AB112" s="2">
         <v>5</v>
       </c>
-      <c r="AC111" s="2">
+      <c r="AC112" s="2">
         <v>4</v>
       </c>
-      <c r="AD111" s="2">
+      <c r="AD112" s="2">
         <v>3</v>
       </c>
-      <c r="AE111" s="2">
+      <c r="AE112" s="2">
         <v>2</v>
       </c>
-      <c r="AF111" s="2">
+      <c r="AF112" s="2">
         <v>1</v>
       </c>
-      <c r="AG111" s="2">
+      <c r="AG112" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B112" s="8" t="s">
+    <row r="113" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B113" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="9"/>
-      <c r="P112" s="8"/>
-      <c r="Q112" s="9"/>
-      <c r="R112" s="8"/>
-      <c r="S112" s="9"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="9"/>
-      <c r="V112" s="8"/>
-      <c r="W112" s="9"/>
-      <c r="X112" s="8"/>
-      <c r="Y112" s="9"/>
-      <c r="Z112" s="8"/>
-      <c r="AA112" s="9"/>
-      <c r="AB112" s="8"/>
-      <c r="AC112" s="9"/>
-      <c r="AD112" s="8"/>
-      <c r="AE112" s="9"/>
-      <c r="AF112" s="8" t="s">
+      <c r="C113" s="26"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="26"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="26"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="25"/>
+      <c r="S113" s="26"/>
+      <c r="T113" s="25"/>
+      <c r="U113" s="26"/>
+      <c r="V113" s="25"/>
+      <c r="W113" s="26"/>
+      <c r="X113" s="25"/>
+      <c r="Y113" s="26"/>
+      <c r="Z113" s="25"/>
+      <c r="AA113" s="26"/>
+      <c r="AB113" s="25"/>
+      <c r="AC113" s="26"/>
+      <c r="AD113" s="25"/>
+      <c r="AE113" s="26"/>
+      <c r="AF113" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AG112" s="9"/>
-    </row>
-    <row r="113" spans="2:33">
-      <c r="B113" s="1"/>
+      <c r="AG113" s="26"/>
     </row>
     <row r="114" spans="2:33">
-      <c r="B114" s="2">
-        <f t="shared" ref="B114:AF114" si="4">B111+32</f>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:33">
+      <c r="B115" s="2">
+        <f t="shared" ref="B115:AF115" si="4">B112+32</f>
         <v>63</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C115" s="2">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D115" s="2">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E115" s="2">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F115" s="2">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G115" s="2">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H115" s="2">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I115" s="2">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J115" s="2">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K115" s="2">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="L114" s="2">
+      <c r="L115" s="2">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="M114" s="2">
+      <c r="M115" s="2">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="N114" s="2">
+      <c r="N115" s="2">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="O114" s="2">
+      <c r="O115" s="2">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="P114" s="2">
+      <c r="P115" s="2">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="Q114" s="2">
+      <c r="Q115" s="2">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="R114" s="2">
+      <c r="R115" s="2">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="S114" s="2">
+      <c r="S115" s="2">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="T114" s="2">
+      <c r="T115" s="2">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="U114" s="2">
+      <c r="U115" s="2">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="V114" s="2">
+      <c r="V115" s="2">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="W114" s="2">
+      <c r="W115" s="2">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="X114" s="2">
+      <c r="X115" s="2">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="Y114" s="2">
+      <c r="Y115" s="2">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="Z114" s="2">
+      <c r="Z115" s="2">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="AA114" s="2">
+      <c r="AA115" s="2">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="AB114" s="2">
+      <c r="AB115" s="2">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="AC114" s="2">
+      <c r="AC115" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="AD114" s="2">
+      <c r="AD115" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="AE114" s="2">
+      <c r="AE115" s="2">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="AF114" s="2">
+      <c r="AF115" s="2">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="AG114" s="2">
-        <f>AG111+32</f>
+      <c r="AG115" s="2">
+        <f>AG112+32</f>
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B115" s="8" t="s">
+    <row r="116" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B116" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="9"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="9"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="9"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="9"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="9"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="9"/>
-      <c r="X115" s="8"/>
-      <c r="Y115" s="9"/>
-      <c r="Z115" s="8"/>
-      <c r="AA115" s="9"/>
-      <c r="AB115" s="8"/>
-      <c r="AC115" s="9"/>
-      <c r="AD115" s="8"/>
-      <c r="AE115" s="9"/>
-      <c r="AF115" s="8" t="s">
+      <c r="C116" s="26"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="26"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="26"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="26"/>
+      <c r="R116" s="25"/>
+      <c r="S116" s="26"/>
+      <c r="T116" s="25"/>
+      <c r="U116" s="26"/>
+      <c r="V116" s="25"/>
+      <c r="W116" s="26"/>
+      <c r="X116" s="25"/>
+      <c r="Y116" s="26"/>
+      <c r="Z116" s="25"/>
+      <c r="AA116" s="26"/>
+      <c r="AB116" s="25"/>
+      <c r="AC116" s="26"/>
+      <c r="AD116" s="25"/>
+      <c r="AE116" s="26"/>
+      <c r="AF116" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AG115" s="9"/>
-    </row>
-    <row r="116" spans="2:33">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B117" s="10" t="s">
+      <c r="AG116" s="26"/>
+    </row>
+    <row r="117" spans="2:33">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B118" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D118" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B118" s="10"/>
-      <c r="D118" s="20" t="s">
+    <row r="119" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B119" s="8"/>
+      <c r="D119" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E119" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F118" s="12" t="s">
+      <c r="F119" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B119" s="10"/>
-      <c r="D119" s="20" t="s">
+    <row r="120" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B120" s="8"/>
+      <c r="D120" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E120" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F119" s="12" t="s">
+      <c r="F120" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="D120" s="20" t="s">
+    <row r="121" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="D121" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E121" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F120" s="12" t="s">
+      <c r="F121" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="D121" s="20" t="s">
+    <row r="122" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="D122" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E122" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F121" s="12" t="s">
+      <c r="F122" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="16"/>
-      <c r="O122" s="16"/>
-      <c r="P122" s="16"/>
-      <c r="Q122" s="16"/>
-      <c r="R122" s="16"/>
-      <c r="S122" s="16"/>
-      <c r="T122" s="16"/>
-      <c r="U122" s="16"/>
-      <c r="V122" s="16"/>
-      <c r="W122" s="16"/>
-      <c r="X122" s="16"/>
-      <c r="Y122" s="16"/>
-      <c r="Z122" s="16"/>
-      <c r="AA122" s="16"/>
-      <c r="AB122" s="16"/>
-      <c r="AC122" s="16"/>
-      <c r="AD122" s="16"/>
-      <c r="AE122" s="16"/>
-      <c r="AF122" s="16"/>
-      <c r="AG122" s="16"/>
-    </row>
-    <row r="123" spans="2:33" s="12" customFormat="1" ht="15.75"/>
-    <row r="124" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B124" s="10" t="s">
+    <row r="123" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
+      <c r="O123" s="14"/>
+      <c r="P123" s="14"/>
+      <c r="Q123" s="14"/>
+      <c r="R123" s="14"/>
+      <c r="S123" s="14"/>
+      <c r="T123" s="14"/>
+      <c r="U123" s="14"/>
+      <c r="V123" s="14"/>
+      <c r="W123" s="14"/>
+      <c r="X123" s="14"/>
+      <c r="Y123" s="14"/>
+      <c r="Z123" s="14"/>
+      <c r="AA123" s="14"/>
+      <c r="AB123" s="14"/>
+      <c r="AC123" s="14"/>
+      <c r="AD123" s="14"/>
+      <c r="AE123" s="14"/>
+      <c r="AF123" s="14"/>
+      <c r="AG123" s="14"/>
+    </row>
+    <row r="124" spans="2:33" s="10" customFormat="1" ht="15.75"/>
+    <row r="125" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B125" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E125" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B125" s="10" t="s">
+    <row r="126" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B126" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E126" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B126" s="10" t="s">
+    <row r="127" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B127" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E127" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B127" s="10" t="s">
+    <row r="128" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B128" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="E128" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="2:33">
-      <c r="B128" s="1"/>
-    </row>
     <row r="129" spans="2:33">
-      <c r="B129" s="2">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:33">
+      <c r="B130" s="2">
         <v>31</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C130" s="2">
         <v>30</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D130" s="2">
         <v>29</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E130" s="2">
         <v>28</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F130" s="2">
         <v>27</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G130" s="2">
         <v>26</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H130" s="2">
         <v>25</v>
       </c>
-      <c r="I129" s="2">
+      <c r="I130" s="2">
         <v>24</v>
       </c>
-      <c r="J129" s="2">
+      <c r="J130" s="2">
         <v>23</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K130" s="2">
         <v>22</v>
       </c>
-      <c r="L129" s="2">
+      <c r="L130" s="2">
         <v>21</v>
       </c>
-      <c r="M129" s="2">
+      <c r="M130" s="2">
         <v>20</v>
       </c>
-      <c r="N129" s="2">
+      <c r="N130" s="2">
         <v>19</v>
       </c>
-      <c r="O129" s="2">
+      <c r="O130" s="2">
         <v>18</v>
       </c>
-      <c r="P129" s="2">
+      <c r="P130" s="2">
         <v>17</v>
       </c>
-      <c r="Q129" s="2">
+      <c r="Q130" s="2">
         <v>16</v>
       </c>
-      <c r="R129" s="2">
+      <c r="R130" s="2">
         <v>15</v>
       </c>
-      <c r="S129" s="2">
+      <c r="S130" s="2">
         <v>14</v>
       </c>
-      <c r="T129" s="2">
+      <c r="T130" s="2">
         <v>13</v>
       </c>
-      <c r="U129" s="2">
+      <c r="U130" s="2">
         <v>12</v>
       </c>
-      <c r="V129" s="2">
+      <c r="V130" s="2">
         <v>11</v>
       </c>
-      <c r="W129" s="2">
+      <c r="W130" s="2">
         <v>10</v>
       </c>
-      <c r="X129" s="2">
+      <c r="X130" s="2">
         <v>9</v>
       </c>
-      <c r="Y129" s="2">
+      <c r="Y130" s="2">
         <v>8</v>
       </c>
-      <c r="Z129" s="2">
+      <c r="Z130" s="2">
         <v>7</v>
       </c>
-      <c r="AA129" s="2">
+      <c r="AA130" s="2">
         <v>6</v>
       </c>
-      <c r="AB129" s="2">
+      <c r="AB130" s="2">
         <v>5</v>
       </c>
-      <c r="AC129" s="2">
+      <c r="AC130" s="2">
         <v>4</v>
       </c>
-      <c r="AD129" s="2">
+      <c r="AD130" s="2">
         <v>3</v>
       </c>
-      <c r="AE129" s="2">
+      <c r="AE130" s="2">
         <v>2</v>
       </c>
-      <c r="AF129" s="2">
+      <c r="AF130" s="2">
         <v>1</v>
       </c>
-      <c r="AG129" s="2">
+      <c r="AG130" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B130" s="3" t="s">
+    <row r="131" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B131" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
-      <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-      <c r="S130" s="3"/>
-      <c r="T130" s="3"/>
-      <c r="U130" s="3"/>
-      <c r="V130" s="3"/>
-      <c r="W130" s="3"/>
-      <c r="X130" s="3"/>
-      <c r="Y130" s="3"/>
-      <c r="Z130" s="3"/>
-      <c r="AA130" s="3"/>
-      <c r="AB130" s="3"/>
-      <c r="AC130" s="3"/>
-      <c r="AD130" s="3"/>
-      <c r="AE130" s="3"/>
-      <c r="AF130" s="3"/>
-      <c r="AG130" s="4" t="s">
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="3"/>
+      <c r="Z131" s="3"/>
+      <c r="AA131" s="3"/>
+      <c r="AB131" s="3"/>
+      <c r="AC131" s="3"/>
+      <c r="AD131" s="3"/>
+      <c r="AE131" s="3"/>
+      <c r="AF131" s="3"/>
+      <c r="AG131" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="2:33">
-      <c r="B131" s="1"/>
-    </row>
     <row r="132" spans="2:33">
-      <c r="B132" s="2">
-        <f t="shared" ref="B132:AF132" si="5">B129+32</f>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:33">
+      <c r="B133" s="2">
+        <f t="shared" ref="B133:AF133" si="5">B130+32</f>
         <v>63</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C133" s="2">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D133" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E133" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F133" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G133" s="2">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H133" s="2">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="I132" s="2">
+      <c r="I133" s="2">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="J132" s="2">
+      <c r="J133" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="K132" s="2">
+      <c r="K133" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="L132" s="2">
+      <c r="L133" s="2">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="M132" s="2">
+      <c r="M133" s="2">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="N132" s="2">
+      <c r="N133" s="2">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="O132" s="2">
+      <c r="O133" s="2">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="P132" s="2">
+      <c r="P133" s="2">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="Q132" s="2">
+      <c r="Q133" s="2">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="R132" s="2">
+      <c r="R133" s="2">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="S132" s="2">
+      <c r="S133" s="2">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="T132" s="2">
+      <c r="T133" s="2">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="U132" s="2">
+      <c r="U133" s="2">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="V132" s="2">
+      <c r="V133" s="2">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="W132" s="2">
+      <c r="W133" s="2">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="X132" s="2">
+      <c r="X133" s="2">
         <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="Y132" s="2">
+      <c r="Y133" s="2">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="Z132" s="2">
+      <c r="Z133" s="2">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="AA132" s="2">
+      <c r="AA133" s="2">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="AB132" s="2">
+      <c r="AB133" s="2">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="AC132" s="2">
+      <c r="AC133" s="2">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="AD132" s="2">
+      <c r="AD133" s="2">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="AE132" s="2">
+      <c r="AE133" s="2">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="AF132" s="2">
+      <c r="AF133" s="2">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="AG132" s="2">
-        <f>AG129+32</f>
+      <c r="AG133" s="2">
+        <f>AG130+32</f>
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B133" s="3" t="s">
+    <row r="134" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B134" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
-      <c r="N133" s="3"/>
-      <c r="O133" s="3"/>
-      <c r="P133" s="3"/>
-      <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
-      <c r="S133" s="3"/>
-      <c r="T133" s="3"/>
-      <c r="U133" s="3"/>
-      <c r="V133" s="3"/>
-      <c r="W133" s="3"/>
-      <c r="X133" s="3"/>
-      <c r="Y133" s="3"/>
-      <c r="Z133" s="3"/>
-      <c r="AA133" s="3"/>
-      <c r="AB133" s="3"/>
-      <c r="AC133" s="3"/>
-      <c r="AD133" s="3"/>
-      <c r="AE133" s="3"/>
-      <c r="AF133" s="3"/>
-      <c r="AG133" s="4" t="s">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="3"/>
+      <c r="AA134" s="3"/>
+      <c r="AB134" s="3"/>
+      <c r="AC134" s="3"/>
+      <c r="AD134" s="3"/>
+      <c r="AE134" s="3"/>
+      <c r="AF134" s="3"/>
+      <c r="AG134" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="134" spans="2:33">
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B135" s="10" t="s">
+    <row r="135" spans="2:33">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B136" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D135" s="12" t="s">
+      <c r="D136" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
-      <c r="M136" s="16"/>
-      <c r="N136" s="16"/>
-      <c r="O136" s="16"/>
-      <c r="P136" s="16"/>
-      <c r="Q136" s="16"/>
-      <c r="R136" s="16"/>
-      <c r="S136" s="16"/>
-      <c r="T136" s="16"/>
-      <c r="U136" s="16"/>
-      <c r="V136" s="16"/>
-      <c r="W136" s="16"/>
-      <c r="X136" s="16"/>
-      <c r="Y136" s="16"/>
-      <c r="Z136" s="16"/>
-      <c r="AA136" s="16"/>
-      <c r="AB136" s="16"/>
-      <c r="AC136" s="16"/>
-      <c r="AD136" s="16"/>
-      <c r="AE136" s="16"/>
-      <c r="AF136" s="16"/>
-      <c r="AG136" s="16"/>
-    </row>
-    <row r="137" spans="2:33" s="12" customFormat="1" ht="15.75"/>
-    <row r="138" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B138" s="10" t="s">
+    <row r="137" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14"/>
+      <c r="O137" s="14"/>
+      <c r="P137" s="14"/>
+      <c r="Q137" s="14"/>
+      <c r="R137" s="14"/>
+      <c r="S137" s="14"/>
+      <c r="T137" s="14"/>
+      <c r="U137" s="14"/>
+      <c r="V137" s="14"/>
+      <c r="W137" s="14"/>
+      <c r="X137" s="14"/>
+      <c r="Y137" s="14"/>
+      <c r="Z137" s="14"/>
+      <c r="AA137" s="14"/>
+      <c r="AB137" s="14"/>
+      <c r="AC137" s="14"/>
+      <c r="AD137" s="14"/>
+      <c r="AE137" s="14"/>
+      <c r="AF137" s="14"/>
+      <c r="AG137" s="14"/>
+    </row>
+    <row r="138" spans="2:33" s="10" customFormat="1" ht="15.75"/>
+    <row r="139" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B139" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="18" t="s">
+      <c r="E139" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B139" s="10" t="s">
+    <row r="140" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B140" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E140" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B140" s="10" t="s">
+    <row r="141" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B141" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E140" s="12" t="s">
+      <c r="E141" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B141" s="10" t="s">
+    <row r="142" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B142" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E141" s="10" t="s">
+      <c r="E142" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="2:33">
-      <c r="B142" s="1"/>
-    </row>
     <row r="143" spans="2:33">
-      <c r="B143" s="2">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:33">
+      <c r="B144" s="2">
         <v>31</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C144" s="2">
         <v>30</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D144" s="2">
         <v>29</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E144" s="2">
         <v>28</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F144" s="2">
         <v>27</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G144" s="2">
         <v>26</v>
       </c>
-      <c r="H143" s="2">
+      <c r="H144" s="2">
         <v>25</v>
       </c>
-      <c r="I143" s="2">
+      <c r="I144" s="2">
         <v>24</v>
       </c>
-      <c r="J143" s="2">
+      <c r="J144" s="2">
         <v>23</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K144" s="2">
         <v>22</v>
       </c>
-      <c r="L143" s="2">
+      <c r="L144" s="2">
         <v>21</v>
       </c>
-      <c r="M143" s="2">
+      <c r="M144" s="2">
         <v>20</v>
       </c>
-      <c r="N143" s="2">
+      <c r="N144" s="2">
         <v>19</v>
       </c>
-      <c r="O143" s="2">
+      <c r="O144" s="2">
         <v>18</v>
       </c>
-      <c r="P143" s="2">
+      <c r="P144" s="2">
         <v>17</v>
       </c>
-      <c r="Q143" s="2">
+      <c r="Q144" s="2">
         <v>16</v>
       </c>
-      <c r="R143" s="2">
+      <c r="R144" s="2">
         <v>15</v>
       </c>
-      <c r="S143" s="2">
+      <c r="S144" s="2">
         <v>14</v>
       </c>
-      <c r="T143" s="2">
+      <c r="T144" s="2">
         <v>13</v>
       </c>
-      <c r="U143" s="2">
+      <c r="U144" s="2">
         <v>12</v>
       </c>
-      <c r="V143" s="2">
+      <c r="V144" s="2">
         <v>11</v>
       </c>
-      <c r="W143" s="2">
+      <c r="W144" s="2">
         <v>10</v>
       </c>
-      <c r="X143" s="2">
+      <c r="X144" s="2">
         <v>9</v>
       </c>
-      <c r="Y143" s="2">
+      <c r="Y144" s="2">
         <v>8</v>
       </c>
-      <c r="Z143" s="2">
+      <c r="Z144" s="2">
         <v>7</v>
       </c>
-      <c r="AA143" s="2">
+      <c r="AA144" s="2">
         <v>6</v>
       </c>
-      <c r="AB143" s="2">
+      <c r="AB144" s="2">
         <v>5</v>
       </c>
-      <c r="AC143" s="2">
+      <c r="AC144" s="2">
         <v>4</v>
       </c>
-      <c r="AD143" s="2">
+      <c r="AD144" s="2">
         <v>3</v>
       </c>
-      <c r="AE143" s="2">
+      <c r="AE144" s="2">
         <v>2</v>
       </c>
-      <c r="AF143" s="2">
+      <c r="AF144" s="2">
         <v>1</v>
       </c>
-      <c r="AG143" s="2">
+      <c r="AG144" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B144" s="3" t="s">
+    <row r="145" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B145" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
-      <c r="M144" s="3"/>
-      <c r="N144" s="3"/>
-      <c r="O144" s="3"/>
-      <c r="P144" s="3"/>
-      <c r="Q144" s="3"/>
-      <c r="R144" s="3"/>
-      <c r="S144" s="3"/>
-      <c r="T144" s="3"/>
-      <c r="U144" s="3"/>
-      <c r="V144" s="3"/>
-      <c r="W144" s="3"/>
-      <c r="X144" s="3"/>
-      <c r="Y144" s="3"/>
-      <c r="Z144" s="3"/>
-      <c r="AA144" s="3"/>
-      <c r="AB144" s="3"/>
-      <c r="AC144" s="3"/>
-      <c r="AD144" s="3"/>
-      <c r="AE144" s="3"/>
-      <c r="AF144" s="3"/>
-      <c r="AG144" s="4" t="s">
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
+      <c r="Y145" s="3"/>
+      <c r="Z145" s="3"/>
+      <c r="AA145" s="3"/>
+      <c r="AB145" s="3"/>
+      <c r="AC145" s="3"/>
+      <c r="AD145" s="3"/>
+      <c r="AE145" s="3"/>
+      <c r="AF145" s="3"/>
+      <c r="AG145" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="2:33">
-      <c r="B145" s="1"/>
-    </row>
     <row r="146" spans="2:33">
-      <c r="B146" s="2">
-        <f t="shared" ref="B146:AF146" si="6">B143+32</f>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="2:33">
+      <c r="B147" s="2">
+        <f t="shared" ref="B147:AF147" si="6">B144+32</f>
         <v>63</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C147" s="2">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D147" s="2">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E147" s="2">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F147" s="2">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G147" s="2">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="H146" s="2">
+      <c r="H147" s="2">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="I146" s="2">
+      <c r="I147" s="2">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="J146" s="2">
+      <c r="J147" s="2">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K147" s="2">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="L146" s="2">
+      <c r="L147" s="2">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="M146" s="2">
+      <c r="M147" s="2">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="N146" s="2">
+      <c r="N147" s="2">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="O146" s="2">
+      <c r="O147" s="2">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="P146" s="2">
+      <c r="P147" s="2">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="Q146" s="2">
+      <c r="Q147" s="2">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="R146" s="2">
+      <c r="R147" s="2">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="S146" s="2">
+      <c r="S147" s="2">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="T146" s="2">
+      <c r="T147" s="2">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="U146" s="2">
+      <c r="U147" s="2">
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="V146" s="2">
+      <c r="V147" s="2">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="W146" s="2">
+      <c r="W147" s="2">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="X146" s="2">
+      <c r="X147" s="2">
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="Y146" s="2">
+      <c r="Y147" s="2">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="Z146" s="2">
+      <c r="Z147" s="2">
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="AA146" s="2">
+      <c r="AA147" s="2">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="AB146" s="2">
+      <c r="AB147" s="2">
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="AC146" s="2">
+      <c r="AC147" s="2">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="AD146" s="2">
+      <c r="AD147" s="2">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="AE146" s="2">
+      <c r="AE147" s="2">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="AF146" s="2">
+      <c r="AF147" s="2">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="AG146" s="2">
-        <f>AG143+32</f>
+      <c r="AG147" s="2">
+        <f>AG144+32</f>
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B147" s="3" t="s">
+    <row r="148" spans="2:33" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B148" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
-      <c r="L147" s="3"/>
-      <c r="M147" s="3"/>
-      <c r="N147" s="3"/>
-      <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
-      <c r="Q147" s="3"/>
-      <c r="R147" s="3"/>
-      <c r="S147" s="3"/>
-      <c r="T147" s="3"/>
-      <c r="U147" s="3"/>
-      <c r="V147" s="3"/>
-      <c r="W147" s="3"/>
-      <c r="X147" s="3"/>
-      <c r="Y147" s="3"/>
-      <c r="Z147" s="3"/>
-      <c r="AA147" s="3"/>
-      <c r="AB147" s="3"/>
-      <c r="AC147" s="3"/>
-      <c r="AD147" s="3"/>
-      <c r="AE147" s="3"/>
-      <c r="AF147" s="3"/>
-      <c r="AG147" s="4" t="s">
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
+      <c r="Y148" s="3"/>
+      <c r="Z148" s="3"/>
+      <c r="AA148" s="3"/>
+      <c r="AB148" s="3"/>
+      <c r="AC148" s="3"/>
+      <c r="AD148" s="3"/>
+      <c r="AE148" s="3"/>
+      <c r="AF148" s="3"/>
+      <c r="AG148" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="148" spans="2:33">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B149" s="10" t="s">
+    <row r="149" spans="2:33">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B150" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="D150" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B150" s="10"/>
-      <c r="D150" s="13">
+    <row r="151" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B151" s="8"/>
+      <c r="D151" s="11">
         <v>0</v>
       </c>
-      <c r="E150" s="14" t="s">
+      <c r="E151" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F150" s="12" t="s">
+      <c r="F151" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="2:33" s="12" customFormat="1" ht="15.75">
-      <c r="B151" s="10"/>
-      <c r="D151" s="13">
+    <row r="152" spans="2:33" s="10" customFormat="1" ht="15.75">
+      <c r="B152" s="8"/>
+      <c r="D152" s="11">
         <v>1</v>
       </c>
-      <c r="E151" s="14" t="s">
+      <c r="E152" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F151" s="12" t="s">
+      <c r="F152" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="2:33" s="12" customFormat="1" ht="15.75"/>
+    <row r="153" spans="2:33" s="10" customFormat="1" ht="15.75"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="C18:AG18"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="X113:Y113"/>
+    <mergeCell ref="Z113:AA113"/>
+    <mergeCell ref="AD113:AE113"/>
+    <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="AF113:AG113"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="T113:U113"/>
+    <mergeCell ref="V113:W113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="Z116:AA116"/>
+    <mergeCell ref="AB116:AC116"/>
+    <mergeCell ref="AD116:AE116"/>
+    <mergeCell ref="AF116:AG116"/>
+    <mergeCell ref="C12:AG12"/>
+    <mergeCell ref="C13:AG13"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="R116:S116"/>
+    <mergeCell ref="T116:U116"/>
+    <mergeCell ref="V116:W116"/>
+    <mergeCell ref="X116:Y116"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
     <mergeCell ref="C15:AG15"/>
     <mergeCell ref="C16:AG16"/>
     <mergeCell ref="C14:AG14"/>
@@ -5439,40 +5603,6 @@
     <mergeCell ref="C9:AG9"/>
     <mergeCell ref="C10:AG10"/>
     <mergeCell ref="C11:AG11"/>
-    <mergeCell ref="Z115:AA115"/>
-    <mergeCell ref="AB115:AC115"/>
-    <mergeCell ref="AD115:AE115"/>
-    <mergeCell ref="AF115:AG115"/>
-    <mergeCell ref="C12:AG12"/>
-    <mergeCell ref="C13:AG13"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="R115:S115"/>
-    <mergeCell ref="T115:U115"/>
-    <mergeCell ref="V115:W115"/>
-    <mergeCell ref="X115:Y115"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="R112:S112"/>
-    <mergeCell ref="T112:U112"/>
-    <mergeCell ref="V112:W112"/>
-    <mergeCell ref="X112:Y112"/>
-    <mergeCell ref="Z112:AA112"/>
-    <mergeCell ref="AD112:AE112"/>
-    <mergeCell ref="AB112:AC112"/>
-    <mergeCell ref="AF112:AG112"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="P112:Q112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1"/>
@@ -5484,8 +5614,8 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="72" max="33" man="1"/>
-    <brk id="136" max="33" man="1"/>
+    <brk id="73" max="33" man="1"/>
+    <brk id="137" max="33" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
